--- a/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/action_reward_table34959R5.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/action_reward_table34959R5.xlsx
@@ -490,34 +490,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.025</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2374868417407584</v>
+        <v>0.15612494995996</v>
       </c>
     </row>
   </sheetData>
